--- a/biology/Zoologie/Conus_burryae/Conus_burryae.xlsx
+++ b/biology/Zoologie/Conus_burryae/Conus_burryae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus burryae est une espèce de mollusques gastéropodes marins de la famille des Conidae.
 Comme toutes les espèces du genre Conus, ces escargots sont prédateurs et venimeux. Ils sont capables de « piquer » les humains et doivent donc être manipulés avec précaution, voire pas du tout.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La taille de la coquille varie entre 20 mm et 35 mm.
 </t>
@@ -543,9 +557,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Locus typicus :. Off Lower Matecumbe Key, Lower Florida keys[1]. .
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Locus typicus :. Off Lower Matecumbe Key, Lower Florida keys. .
 Cette espèce est présente dans le Golfe du Mexique.
 </t>
         </is>
@@ -577,10 +593,50 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Publication originale
-L'espèce Conus burryae a été décrite pour la première fois en 1942 par le malacologiste américain William James Clench dans « Johnsonia »[2],[3].
-Synonymes
-Conus (Dauciconus) burryae Clench, 1942 · appellation alternative
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Conus burryae a été décrite pour la première fois en 1942 par le malacologiste américain William James Clench dans « Johnsonia »,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Conus_burryae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_burryae</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Conus (Dauciconus) burryae Clench, 1942 · appellation alternative
 Conus anabathrum antoni Cargile, 2011 · non accepté
 Conus anabathrum burryae Clench, 1942 · non accepté
 Conus floridanus burryae Clench, 1942 · non accepté (basionyme)
